--- a/data/trans_orig/P1804-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1804-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEDB1DCE-6A8D-449E-9AE9-65DDCA8C8F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{561C5F15-1DE0-458A-BDED-0E0BC0C6A46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4FC2BF44-6BC6-4BB0-90D2-D30B07ABDF09}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{95783309-DADB-4079-880E-AAB0129A8BFF}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -75,712 +75,712 @@
     <t>6,6%</t>
   </si>
   <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
   </si>
   <si>
     <t>95,55%</t>
   </si>
   <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
   </si>
   <si>
     <t>7,45%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
   </si>
   <si>
     <t>92,55%</t>
   </si>
   <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058AC7FD-B9D1-41D7-987A-6173F8642C19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D237596C-ED79-4AD2-8192-8B7EEDFAEB2D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1814,10 +1814,10 @@
         <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1832,13 @@
         <v>612596</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>564</v>
@@ -1847,28 +1847,28 @@
         <v>608643</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1115</v>
       </c>
       <c r="N14" s="7">
-        <v>1221239</v>
+        <v>1221240</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1936,13 +1936,13 @@
         <v>38026</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -1951,13 +1951,13 @@
         <v>53625</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>80</v>
@@ -1966,13 +1966,13 @@
         <v>91651</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1987,13 @@
         <v>439892</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>387</v>
@@ -2002,13 +2002,13 @@
         <v>443224</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>777</v>
@@ -2017,13 +2017,13 @@
         <v>883116</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,7 +2079,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2091,13 +2091,13 @@
         <v>60435</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>84</v>
@@ -2106,13 +2106,13 @@
         <v>106074</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>147</v>
@@ -2121,13 +2121,13 @@
         <v>166509</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,13 +2142,13 @@
         <v>530893</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>571</v>
@@ -2157,13 +2157,13 @@
         <v>671857</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>1135</v>
@@ -2172,13 +2172,13 @@
         <v>1202750</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,13 +2246,13 @@
         <v>213690</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>317</v>
@@ -2261,13 +2261,13 @@
         <v>351909</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>524</v>
@@ -2276,13 +2276,13 @@
         <v>565599</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,13 +2297,13 @@
         <v>3180660</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="H23" s="7">
         <v>3021</v>
@@ -2312,13 +2312,13 @@
         <v>3192633</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>6045</v>
@@ -2327,13 +2327,13 @@
         <v>6373293</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,7 +2389,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2411,7 +2411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D438D69-77DC-4813-BE30-D9ED7CFAABC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B945AD6-369B-43F3-993E-BFACD32A92E8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2428,7 +2428,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2535,13 +2535,13 @@
         <v>3712</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -2550,13 +2550,13 @@
         <v>28688</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -2565,13 +2565,13 @@
         <v>32401</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,13 +2586,13 @@
         <v>373967</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H5" s="7">
         <v>189</v>
@@ -2601,13 +2601,13 @@
         <v>323407</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M5" s="7">
         <v>360</v>
@@ -2616,13 +2616,13 @@
         <v>697373</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2690,13 @@
         <v>29945</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -2705,13 +2705,13 @@
         <v>52001</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
@@ -2720,10 +2720,10 @@
         <v>81946</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>162</v>
@@ -2744,10 +2744,10 @@
         <v>163</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H8" s="7">
         <v>412</v>
@@ -2756,13 +2756,13 @@
         <v>446417</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M8" s="7">
         <v>698</v>
@@ -2771,13 +2771,13 @@
         <v>844868</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,13 +2845,13 @@
         <v>26903</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>64</v>
@@ -2860,13 +2860,13 @@
         <v>45606</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -2875,13 +2875,13 @@
         <v>72509</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +2896,13 @@
         <v>530349</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H11" s="7">
         <v>782</v>
@@ -2911,13 +2911,13 @@
         <v>537870</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M11" s="7">
         <v>1306</v>
@@ -2926,10 +2926,10 @@
         <v>1068218</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>187</v>
@@ -3036,7 +3036,7 @@
         <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,13 +3051,13 @@
         <v>679900</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>1062</v>
@@ -3066,28 +3066,28 @@
         <v>695362</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>1690</v>
       </c>
       <c r="N14" s="7">
-        <v>1375263</v>
+        <v>1375262</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,7 +3129,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3155,13 +3155,13 @@
         <v>41631</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H16" s="7">
         <v>85</v>
@@ -3170,13 +3170,13 @@
         <v>47815</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M16" s="7">
         <v>132</v>
@@ -3185,13 +3185,13 @@
         <v>89446</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,13 +3206,13 @@
         <v>558526</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H17" s="7">
         <v>915</v>
@@ -3221,13 +3221,13 @@
         <v>547979</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="M17" s="7">
         <v>1531</v>
@@ -3236,13 +3236,13 @@
         <v>1106505</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,7 +3298,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3310,13 +3310,13 @@
         <v>53968</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H19" s="7">
         <v>148</v>
@@ -3325,13 +3325,13 @@
         <v>76440</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>72</v>
+        <v>223</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M19" s="7">
         <v>233</v>
@@ -3340,13 +3340,13 @@
         <v>130408</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>229</v>
+        <v>96</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,16 +3358,16 @@
         <v>943</v>
       </c>
       <c r="D20" s="7">
-        <v>643786</v>
+        <v>643787</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H20" s="7">
         <v>1559</v>
@@ -3376,13 +3376,13 @@
         <v>949572</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M20" s="7">
         <v>2502</v>
@@ -3391,13 +3391,13 @@
         <v>1593359</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>237</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,7 +3409,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3465,13 +3465,13 @@
         <v>200249</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="H22" s="7">
         <v>439</v>
@@ -3480,13 +3480,13 @@
         <v>302449</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="M22" s="7">
         <v>647</v>
@@ -3495,13 +3495,13 @@
         <v>502698</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>242</v>
+        <v>176</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,13 +3516,13 @@
         <v>3184979</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H23" s="7">
         <v>4919</v>
@@ -3531,13 +3531,13 @@
         <v>3500608</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M23" s="7">
         <v>8087</v>
@@ -3549,10 +3549,10 @@
         <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,7 +3608,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1804-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1804-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{561C5F15-1DE0-458A-BDED-0E0BC0C6A46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFA54B44-091D-44A0-9ED2-C38D72D37241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{95783309-DADB-4079-880E-AAB0129A8BFF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E079684C-7755-4F88-AFF0-20D8E126DF1B}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="248">
   <si>
-    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,28 +75,28 @@
     <t>6,6%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
   </si>
   <si>
     <t>8,43%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
   </si>
   <si>
     <t>7,49%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>93,4%</t>
   </si>
   <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>91,57%</t>
   </si>
   <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>92,51%</t>
   </si>
   <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>4,79%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
   </si>
   <si>
     <t>95,21%</t>
   </si>
   <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
   </si>
   <si>
     <t>89,55%</t>
   </si>
   <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
   <si>
     <t>92,45%</t>
   </si>
   <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -195,55 +195,49 @@
     <t>3,86%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
   </si>
   <si>
     <t>9,0%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
+    <t>6,92%</t>
   </si>
   <si>
     <t>6,42%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
   </si>
   <si>
     <t>91,0%</t>
   </si>
   <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
+    <t>93,08%</t>
   </si>
   <si>
     <t>93,58%</t>
   </si>
   <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -252,55 +246,49 @@
     <t>5,18%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
   </si>
   <si>
     <t>6,23%</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
+    <t>7,13%</t>
   </si>
   <si>
     <t>94,82%</t>
   </si>
   <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
   </si>
   <si>
     <t>93,77%</t>
   </si>
   <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>94,3%</t>
   </si>
   <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
+    <t>92,87%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -309,438 +297,456 @@
     <t>7,96%</t>
   </si>
   <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
+    <t>10,64%</t>
   </si>
   <si>
     <t>10,79%</t>
   </si>
   <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>92,43%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
     <t>91,3%</t>
   </si>
   <si>
@@ -753,9 +759,6 @@
     <t>6,85%</t>
   </si>
   <si>
-    <t>7,95%</t>
-  </si>
-  <si>
     <t>6,98%</t>
   </si>
   <si>
@@ -769,9 +772,6 @@
   </si>
   <si>
     <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
   </si>
   <si>
     <t>91,11%</t>
@@ -1192,7 +1192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D237596C-ED79-4AD2-8192-8B7EEDFAEB2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE06CF7-2685-4F38-9110-2EDDD914049F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1647,7 +1647,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
         <v>82</v>
@@ -1656,13 +1656,13 @@
         <v>85373</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1677,13 @@
         <v>643274</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>608</v>
@@ -1692,13 +1692,13 @@
         <v>601836</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>1221</v>
@@ -1707,13 +1707,13 @@
         <v>1245110</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,7 +1769,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1781,13 +1781,13 @@
         <v>33452</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -1796,13 +1796,13 @@
         <v>40434</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -1811,13 +1811,13 @@
         <v>73886</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1832,13 @@
         <v>612596</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>564</v>
@@ -1847,28 +1847,28 @@
         <v>608643</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
         <v>1115</v>
       </c>
       <c r="N14" s="7">
-        <v>1221240</v>
+        <v>1221239</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1936,13 +1936,13 @@
         <v>38026</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -1951,13 +1951,13 @@
         <v>53625</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>80</v>
@@ -1966,13 +1966,13 @@
         <v>91651</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1987,13 @@
         <v>439892</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>387</v>
@@ -2002,13 +2002,13 @@
         <v>443224</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>777</v>
@@ -2017,13 +2017,13 @@
         <v>883116</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,7 +2079,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2091,13 +2091,13 @@
         <v>60435</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H19" s="7">
         <v>84</v>
@@ -2106,13 +2106,13 @@
         <v>106074</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>147</v>
@@ -2121,13 +2121,13 @@
         <v>166509</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,13 +2142,13 @@
         <v>530893</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>571</v>
@@ -2157,13 +2157,13 @@
         <v>671857</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
         <v>1135</v>
@@ -2172,13 +2172,13 @@
         <v>1202750</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,13 +2246,13 @@
         <v>213690</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H22" s="7">
         <v>317</v>
@@ -2261,13 +2261,13 @@
         <v>351909</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
         <v>524</v>
@@ -2276,13 +2276,13 @@
         <v>565599</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,13 +2297,13 @@
         <v>3180660</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="H23" s="7">
         <v>3021</v>
@@ -2312,13 +2312,13 @@
         <v>3192633</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="M23" s="7">
         <v>6045</v>
@@ -2327,13 +2327,13 @@
         <v>6373293</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,7 +2389,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2411,7 +2411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B945AD6-369B-43F3-993E-BFACD32A92E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCC4B67-47F9-4ADA-A723-DC03B12DFBED}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2428,7 +2428,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2535,13 +2535,13 @@
         <v>3712</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -2550,13 +2550,13 @@
         <v>28688</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M4" s="7">
         <v>17</v>
@@ -2565,13 +2565,13 @@
         <v>32401</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,13 +2586,13 @@
         <v>373967</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H5" s="7">
         <v>189</v>
@@ -2601,13 +2601,13 @@
         <v>323407</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M5" s="7">
         <v>360</v>
@@ -2616,13 +2616,13 @@
         <v>697373</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2690,13 @@
         <v>29945</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H7" s="7">
         <v>47</v>
@@ -2705,13 +2705,13 @@
         <v>52001</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
@@ -2720,13 +2720,13 @@
         <v>81946</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,10 +2741,10 @@
         <v>398451</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>164</v>
@@ -2777,7 +2777,7 @@
         <v>169</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,7 +2988,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3036,7 +3036,7 @@
         <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,7 +3084,7 @@
         <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>203</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3173,7 +3173,7 @@
         <v>207</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>208</v>
@@ -3227,7 +3227,7 @@
         <v>216</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M17" s="7">
         <v>1531</v>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3340,13 +3340,13 @@
         <v>130408</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>226</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,13 +3361,13 @@
         <v>643787</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H20" s="7">
         <v>1559</v>
@@ -3376,13 +3376,13 @@
         <v>949572</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M20" s="7">
         <v>2502</v>
@@ -3391,13 +3391,13 @@
         <v>1593359</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>235</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,10 +3468,10 @@
         <v>174</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H22" s="7">
         <v>439</v>
@@ -3480,13 +3480,13 @@
         <v>302449</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M22" s="7">
         <v>647</v>
@@ -3495,13 +3495,13 @@
         <v>502698</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>176</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,10 +3519,10 @@
         <v>184</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H23" s="7">
         <v>4919</v>
@@ -3531,7 +3531,7 @@
         <v>3500608</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>245</v>
@@ -3546,7 +3546,7 @@
         <v>6685587</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>247</v>
@@ -3608,7 +3608,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1804-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1804-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75201EEE-980C-40F0-BD95-782633B7566E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D49ED066-85D7-48A8-8355-06B897BC1D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F8D8533-5744-4724-8026-304C56811ADA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B347A15F-67EF-4A17-BEA9-ADB1041B6220}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="372">
   <si>
     <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>991.0</t>
@@ -110,7 +110,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>99,73%</t>
@@ -131,7 +131,7 @@
     <t>0,15%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>99,69%</t>
@@ -146,7 +146,7 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -155,7 +155,7 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>99,51%</t>
@@ -176,267 +176,309 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>Población según si en los últimos 12 meses han visitado un enfermero/a, matrona en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
     <t>5,18%</t>
   </si>
   <si>
@@ -536,58 +578,115 @@
     <t>92,32%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
   </si>
   <si>
     <t>6,3%</t>
@@ -650,43 +749,46 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>0,42%</t>
@@ -695,58 +797,58 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
   </si>
   <si>
     <t>0,23%</t>
@@ -755,37 +857,40 @@
     <t>0,14%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
   </si>
   <si>
     <t>7,82%</t>
   </si>
   <si>
-    <t>5,95%</t>
+    <t>5,96%</t>
   </si>
   <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
   </si>
   <si>
     <t>92,18%</t>
@@ -794,208 +899,262 @@
     <t>90,32%</t>
   </si>
   <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
   </si>
   <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>5,6%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
   </si>
   <si>
     <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
   </si>
 </sst>
 </file>
@@ -1407,8 +1566,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBFF01C-CFBF-4E0D-AE81-FAD84C55F889}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2904F8-A09B-40CD-A386-D5C7E7A2CFC5}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2555,10 +2714,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D24" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>11</v>
@@ -2570,31 +2729,31 @@
         <v>13</v>
       </c>
       <c r="H24" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I24" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M24" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N24" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>13</v>
@@ -2618,7 +2777,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2633,7 +2792,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2648,7 +2807,7 @@
         <v>18</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,7 +2828,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2684,7 +2843,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -2699,7 +2858,7 @@
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,10 +2867,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -2723,10 +2882,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -2738,10 +2897,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -2755,52 +2914,52 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3214</v>
+        <v>220</v>
       </c>
       <c r="D28" s="7">
-        <v>3276544</v>
+        <v>209883</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="7">
-        <v>3297</v>
+        <v>290</v>
       </c>
       <c r="I28" s="7">
-        <v>3379198</v>
+        <v>333908</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M28" s="7">
-        <v>6511</v>
+        <v>510</v>
       </c>
       <c r="N28" s="7">
-        <v>6655740</v>
+        <v>543791</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -2824,7 +2983,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2839,7 +2998,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -2854,7 +3013,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,7 +3034,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2890,7 +3049,7 @@
         <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -2905,7 +3064,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,63 +3073,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
         <v>3214</v>
       </c>
-      <c r="D31" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D32" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="7">
         <v>3297</v>
       </c>
-      <c r="I31" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I32" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="7">
         <v>6511</v>
       </c>
-      <c r="N31" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="N32" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>3214</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
+        <v>6511</v>
+      </c>
+      <c r="N35" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2983,8 +3349,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317F0F9C-223C-4C3A-9FA3-7CB7C7395C3E}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9998517A-A86E-40D8-9151-6FF6E687FE61}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3000,7 +3366,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3110,7 +3476,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3125,7 +3491,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3140,7 +3506,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3164,7 +3530,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3179,7 +3545,7 @@
         <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3194,7 +3560,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,7 +3581,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3230,7 +3596,7 @@
         <v>18</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3245,7 +3611,7 @@
         <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,7 +3697,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>13</v>
@@ -3385,7 +3751,7 @@
         <v>18</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3436,7 +3802,7 @@
         <v>18</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3728,7 +4094,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3743,7 +4109,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3758,7 +4124,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3782,7 +4148,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3797,7 +4163,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3812,7 +4178,7 @@
         <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,7 +4199,7 @@
         <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3848,7 +4214,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3863,7 +4229,7 @@
         <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,7 +4315,7 @@
         <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>13</v>
@@ -4003,7 +4369,7 @@
         <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -4054,7 +4420,7 @@
         <v>18</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4131,46 +4497,46 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D24" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H24" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I24" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M24" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N24" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>13</v>
@@ -4194,7 +4560,7 @@
         <v>18</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -4209,7 +4575,7 @@
         <v>18</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -4224,7 +4590,7 @@
         <v>18</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,7 +4611,7 @@
         <v>18</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4260,7 +4626,7 @@
         <v>18</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4275,7 +4641,7 @@
         <v>18</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,10 +4650,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -4299,10 +4665,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -4314,10 +4680,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -4331,52 +4697,52 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3209</v>
+        <v>222</v>
       </c>
       <c r="D28" s="7">
-        <v>3426779</v>
+        <v>249851</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H28" s="7">
-        <v>3298</v>
+        <v>350</v>
       </c>
       <c r="I28" s="7">
-        <v>3558309</v>
+        <v>388979</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M28" s="7">
-        <v>6507</v>
+        <v>572</v>
       </c>
       <c r="N28" s="7">
-        <v>6985088</v>
+        <v>638830</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>13</v>
@@ -4400,7 +4766,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -4415,7 +4781,7 @@
         <v>18</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -4430,7 +4796,7 @@
         <v>18</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,7 +4817,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -4466,7 +4832,7 @@
         <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -4481,7 +4847,7 @@
         <v>18</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,63 +4856,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
         <v>3209</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D32" s="7">
         <v>3426779</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="7">
         <v>3298</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I32" s="7">
         <v>3558309</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="7">
         <v>6507</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N32" s="7">
         <v>6985088</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="O32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3426779</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
+        <v>3298</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3558309</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
+        <v>6507</v>
+      </c>
+      <c r="N35" s="7">
+        <v>6985088</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4559,8 +5132,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED656F0A-441B-4017-968C-8D675074938E}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9722AC-6B1E-48C5-BD36-B95C9D7C8321}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4576,7 +5149,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4704,7 +5277,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4734,13 +5307,13 @@
         <v>27696</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7">
         <v>33</v>
@@ -4749,13 +5322,13 @@
         <v>33356</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="M5" s="7">
         <v>59</v>
@@ -4764,13 +5337,13 @@
         <v>61052</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4785,13 +5358,13 @@
         <v>391767</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="H6" s="7">
         <v>371</v>
@@ -4800,13 +5373,13 @@
         <v>362399</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="M6" s="7">
         <v>738</v>
@@ -4815,13 +5388,13 @@
         <v>754166</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,7 +5468,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4910,7 +5483,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4925,7 +5498,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +5513,13 @@
         <v>28256</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="H9" s="7">
         <v>59</v>
@@ -4955,13 +5528,13 @@
         <v>58872</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="M9" s="7">
         <v>87</v>
@@ -4970,13 +5543,13 @@
         <v>87128</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4991,13 +5564,13 @@
         <v>562240</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>520</v>
@@ -5006,13 +5579,13 @@
         <v>504672</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="M10" s="7">
         <v>1059</v>
@@ -5021,13 +5594,13 @@
         <v>1066912</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,7 +5674,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5146,13 +5719,13 @@
         <v>25823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="H13" s="7">
         <v>57</v>
@@ -5161,13 +5734,13 @@
         <v>59550</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>82</v>
@@ -5176,13 +5749,13 @@
         <v>85373</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5770,13 @@
         <v>643274</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="H14" s="7">
         <v>608</v>
@@ -5212,13 +5785,13 @@
         <v>601836</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>1221</v>
@@ -5227,13 +5800,13 @@
         <v>1245110</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,7 +5880,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5337,7 +5910,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,13 +5925,13 @@
         <v>33452</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -5367,13 +5940,13 @@
         <v>40434</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M17" s="7">
         <v>69</v>
@@ -5382,13 +5955,13 @@
         <v>73886</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,13 +5976,13 @@
         <v>612596</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="H18" s="7">
         <v>564</v>
@@ -5418,13 +5991,13 @@
         <v>608643</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="M18" s="7">
         <v>1115</v>
@@ -5433,13 +6006,13 @@
         <v>1221239</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,7 +6086,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5528,7 +6101,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5543,7 +6116,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,13 +6131,13 @@
         <v>38026</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="H21" s="7">
         <v>46</v>
@@ -5573,13 +6146,13 @@
         <v>53625</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="M21" s="7">
         <v>80</v>
@@ -5588,13 +6161,13 @@
         <v>91651</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +6182,13 @@
         <v>439892</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="H22" s="7">
         <v>387</v>
@@ -5624,13 +6197,13 @@
         <v>443224</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="M22" s="7">
         <v>777</v>
@@ -5639,13 +6212,13 @@
         <v>883116</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,7 +6292,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5734,7 +6307,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5749,7 +6322,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,49 +6331,49 @@
         <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D25" s="7">
-        <v>60435</v>
+        <v>37267</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="H25" s="7">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="I25" s="7">
-        <v>106074</v>
+        <v>43523</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="M25" s="7">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="N25" s="7">
-        <v>166509</v>
+        <v>80790</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,49 +6382,49 @@
         <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>564</v>
+        <v>289</v>
       </c>
       <c r="D26" s="7">
-        <v>530893</v>
+        <v>297063</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="H26" s="7">
-        <v>571</v>
+        <v>314</v>
       </c>
       <c r="I26" s="7">
-        <v>671857</v>
+        <v>334239</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="M26" s="7">
-        <v>1135</v>
+        <v>603</v>
       </c>
       <c r="N26" s="7">
-        <v>1202750</v>
+        <v>631302</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,10 +6433,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -5875,10 +6448,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -5890,10 +6463,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -5907,7 +6480,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5925,7 +6498,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5940,7 +6513,7 @@
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5955,7 +6528,7 @@
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,49 +6537,49 @@
         <v>16</v>
       </c>
       <c r="C29" s="7">
+        <v>27</v>
+      </c>
+      <c r="D29" s="7">
+        <v>23168</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H29" s="7">
+        <v>44</v>
+      </c>
+      <c r="I29" s="7">
+        <v>62551</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M29" s="7">
+        <v>71</v>
+      </c>
+      <c r="N29" s="7">
+        <v>85719</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="D29" s="7">
-        <v>213690</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H29" s="7">
-        <v>317</v>
-      </c>
-      <c r="I29" s="7">
-        <v>351909</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="M29" s="7">
-        <v>524</v>
-      </c>
-      <c r="N29" s="7">
-        <v>565599</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,49 +6588,49 @@
         <v>22</v>
       </c>
       <c r="C30" s="7">
-        <v>3024</v>
+        <v>275</v>
       </c>
       <c r="D30" s="7">
-        <v>3180660</v>
+        <v>233830</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="H30" s="7">
-        <v>3021</v>
+        <v>257</v>
       </c>
       <c r="I30" s="7">
-        <v>3192633</v>
+        <v>337618</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="M30" s="7">
-        <v>6045</v>
+        <v>532</v>
       </c>
       <c r="N30" s="7">
-        <v>6373293</v>
+        <v>571448</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6066,63 +6639,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>207</v>
+      </c>
+      <c r="D33" s="7">
+        <v>213690</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H33" s="7">
+        <v>317</v>
+      </c>
+      <c r="I33" s="7">
+        <v>351909</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M33" s="7">
+        <v>524</v>
+      </c>
+      <c r="N33" s="7">
+        <v>565599</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>3024</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3180660</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H34" s="7">
+        <v>3021</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3192633</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M34" s="7">
+        <v>6045</v>
+      </c>
+      <c r="N34" s="7">
+        <v>6373293</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3231</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3394350</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
         <v>3338</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3544542</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
         <v>6569</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6938892</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6135,8 +6915,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99EA8C77-8FFB-4791-B3E4-33B55501BAF2}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF7F966-A613-40FA-BCE6-09CE0A1E09E1}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6152,7 +6932,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6265,7 +7045,7 @@
         <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6280,7 +7060,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6295,7 +7075,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,46 +7087,46 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>3712</v>
+        <v>3600</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="H5" s="7">
         <v>16</v>
       </c>
       <c r="I5" s="7">
-        <v>28688</v>
+        <v>25371</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
       </c>
       <c r="N5" s="7">
-        <v>32401</v>
+        <v>28971</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6358,13 +7138,13 @@
         <v>171</v>
       </c>
       <c r="D6" s="7">
-        <v>373967</v>
+        <v>396387</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>11</v>
@@ -6373,31 +7153,31 @@
         <v>189</v>
       </c>
       <c r="I6" s="7">
-        <v>323407</v>
+        <v>285438</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>161</v>
+        <v>244</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="M6" s="7">
         <v>360</v>
       </c>
       <c r="N6" s="7">
-        <v>697373</v>
+        <v>681825</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6409,7 +7189,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
@@ -6424,7 +7204,7 @@
         <v>205</v>
       </c>
       <c r="I7" s="7">
-        <v>352095</v>
+        <v>310809</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>13</v>
@@ -6439,7 +7219,7 @@
         <v>377</v>
       </c>
       <c r="N7" s="7">
-        <v>729774</v>
+        <v>710796</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>13</v>
@@ -6471,7 +7251,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>215</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6486,7 +7266,7 @@
         <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>216</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6501,7 +7281,7 @@
         <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6513,46 +7293,46 @@
         <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>29945</v>
+        <v>30165</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>218</v>
+        <v>252</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="H9" s="7">
         <v>47</v>
       </c>
       <c r="I9" s="7">
-        <v>52001</v>
+        <v>47316</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="M9" s="7">
         <v>63</v>
       </c>
       <c r="N9" s="7">
-        <v>81946</v>
+        <v>77481</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,46 +7344,46 @@
         <v>286</v>
       </c>
       <c r="D10" s="7">
-        <v>398451</v>
+        <v>393382</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>412</v>
       </c>
       <c r="I10" s="7">
-        <v>446417</v>
+        <v>464027</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>698</v>
       </c>
       <c r="N10" s="7">
-        <v>844868</v>
+        <v>857409</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,7 +7395,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>13</v>
@@ -6630,7 +7410,7 @@
         <v>459</v>
       </c>
       <c r="I11" s="7">
-        <v>498418</v>
+        <v>511343</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -6645,7 +7425,7 @@
         <v>761</v>
       </c>
       <c r="N11" s="7">
-        <v>926814</v>
+        <v>934890</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>13</v>
@@ -6677,7 +7457,7 @@
         <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6692,7 +7472,7 @@
         <v>18</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6707,7 +7487,7 @@
         <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,46 +7499,46 @@
         <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>26903</v>
+        <v>25298</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>64</v>
       </c>
       <c r="I13" s="7">
-        <v>45606</v>
+        <v>42445</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
       </c>
       <c r="N13" s="7">
-        <v>72509</v>
+        <v>67743</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>99</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6770,46 +7550,46 @@
         <v>524</v>
       </c>
       <c r="D14" s="7">
-        <v>530349</v>
+        <v>511040</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="H14" s="7">
         <v>782</v>
       </c>
       <c r="I14" s="7">
-        <v>537870</v>
+        <v>500023</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
         <v>1306</v>
       </c>
       <c r="N14" s="7">
-        <v>1068218</v>
+        <v>1011063</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6821,7 +7601,7 @@
         <v>546</v>
       </c>
       <c r="D15" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -6836,7 +7616,7 @@
         <v>846</v>
       </c>
       <c r="I15" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -6851,7 +7631,7 @@
         <v>1392</v>
       </c>
       <c r="N15" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -6898,7 +7678,7 @@
         <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6913,7 +7693,7 @@
         <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6925,46 +7705,46 @@
         <v>37</v>
       </c>
       <c r="D17" s="7">
-        <v>44090</v>
+        <v>41899</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>79</v>
       </c>
       <c r="I17" s="7">
-        <v>51899</v>
+        <v>47917</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>116</v>
       </c>
       <c r="N17" s="7">
-        <v>95989</v>
+        <v>89816</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>263</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6976,46 +7756,46 @@
         <v>628</v>
       </c>
       <c r="D18" s="7">
-        <v>679900</v>
+        <v>845887</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="H18" s="7">
         <v>1062</v>
       </c>
       <c r="I18" s="7">
-        <v>695362</v>
+        <v>664964</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="M18" s="7">
         <v>1690</v>
       </c>
       <c r="N18" s="7">
-        <v>1375263</v>
+        <v>1510851</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7027,7 +7807,7 @@
         <v>665</v>
       </c>
       <c r="D19" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>13</v>
@@ -7042,7 +7822,7 @@
         <v>1141</v>
       </c>
       <c r="I19" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>13</v>
@@ -7057,7 +7837,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>13</v>
@@ -7119,7 +7899,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7131,46 +7911,46 @@
         <v>47</v>
       </c>
       <c r="D21" s="7">
-        <v>41631</v>
+        <v>38970</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="H21" s="7">
         <v>85</v>
       </c>
       <c r="I21" s="7">
-        <v>47815</v>
+        <v>44157</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="M21" s="7">
         <v>132</v>
       </c>
       <c r="N21" s="7">
-        <v>89446</v>
+        <v>83127</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,46 +7962,46 @@
         <v>616</v>
       </c>
       <c r="D22" s="7">
-        <v>558526</v>
+        <v>522264</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="H22" s="7">
         <v>915</v>
       </c>
       <c r="I22" s="7">
-        <v>547979</v>
+        <v>502567</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="M22" s="7">
         <v>1531</v>
       </c>
       <c r="N22" s="7">
-        <v>1106505</v>
+        <v>1024831</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,7 +8013,7 @@
         <v>663</v>
       </c>
       <c r="D23" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>13</v>
@@ -7248,7 +8028,7 @@
         <v>1000</v>
       </c>
       <c r="I23" s="7">
-        <v>595794</v>
+        <v>546724</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>13</v>
@@ -7263,7 +8043,7 @@
         <v>1663</v>
       </c>
       <c r="N23" s="7">
-        <v>1195951</v>
+        <v>1107958</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>13</v>
@@ -7295,7 +8075,7 @@
         <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -7310,7 +8090,7 @@
         <v>18</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7325,7 +8105,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,49 +8114,49 @@
         <v>16</v>
       </c>
       <c r="C25" s="7">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D25" s="7">
-        <v>53968</v>
+        <v>30775</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="H25" s="7">
-        <v>148</v>
+        <v>71</v>
       </c>
       <c r="I25" s="7">
-        <v>76440</v>
+        <v>32847</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>134</v>
+        <v>327</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="M25" s="7">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="N25" s="7">
-        <v>130408</v>
+        <v>63623</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,49 +8165,49 @@
         <v>22</v>
       </c>
       <c r="C26" s="7">
-        <v>943</v>
+        <v>519</v>
       </c>
       <c r="D26" s="7">
-        <v>643786</v>
+        <v>337390</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="H26" s="7">
-        <v>1559</v>
+        <v>756</v>
       </c>
       <c r="I26" s="7">
-        <v>949572</v>
+        <v>575521</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>141</v>
+        <v>336</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="M26" s="7">
-        <v>2502</v>
+        <v>1275</v>
       </c>
       <c r="N26" s="7">
-        <v>1593359</v>
+        <v>912910</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,10 +8216,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>13</v>
@@ -7451,10 +8231,10 @@
         <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>1707</v>
+        <v>827</v>
       </c>
       <c r="I27" s="7">
-        <v>1026012</v>
+        <v>608368</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>13</v>
@@ -7466,10 +8246,10 @@
         <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>2735</v>
+        <v>1397</v>
       </c>
       <c r="N27" s="7">
-        <v>1723767</v>
+        <v>976533</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>13</v>
@@ -7483,7 +8263,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7501,7 +8281,7 @@
         <v>18</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>52</v>
+        <v>250</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7516,7 +8296,7 @@
         <v>18</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>309</v>
+        <v>68</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7531,7 +8311,7 @@
         <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,49 +8320,49 @@
         <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>208</v>
+        <v>34</v>
       </c>
       <c r="D29" s="7">
-        <v>200249</v>
+        <v>20126</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>299</v>
+        <v>252</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>139</v>
+        <v>343</v>
       </c>
       <c r="H29" s="7">
-        <v>439</v>
+        <v>77</v>
       </c>
       <c r="I29" s="7">
-        <v>302449</v>
+        <v>36676</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>263</v>
+        <v>344</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>282</v>
+        <v>346</v>
       </c>
       <c r="M29" s="7">
-        <v>647</v>
+        <v>111</v>
       </c>
       <c r="N29" s="7">
-        <v>502698</v>
+        <v>56802</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7591,49 +8371,49 @@
         <v>22</v>
       </c>
       <c r="C30" s="7">
-        <v>3168</v>
+        <v>424</v>
       </c>
       <c r="D30" s="7">
-        <v>3184979</v>
+        <v>262633</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>147</v>
+        <v>348</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="H30" s="7">
-        <v>4919</v>
+        <v>803</v>
       </c>
       <c r="I30" s="7">
-        <v>3500608</v>
+        <v>388589</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>271</v>
+        <v>350</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="M30" s="7">
-        <v>8087</v>
+        <v>1227</v>
       </c>
       <c r="N30" s="7">
-        <v>6685587</v>
+        <v>651222</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>227</v>
+        <v>122</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,63 +8422,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>458</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="7">
+        <v>880</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425265</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N31" s="7">
+        <v>708024</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="7">
+        <v>208</v>
+      </c>
+      <c r="D33" s="7">
+        <v>190834</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H33" s="7">
+        <v>439</v>
+      </c>
+      <c r="I33" s="7">
+        <v>276729</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="M33" s="7">
+        <v>647</v>
+      </c>
+      <c r="N33" s="7">
+        <v>467563</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="7">
+        <v>3168</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3268983</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="H34" s="7">
+        <v>4919</v>
+      </c>
+      <c r="I34" s="7">
+        <v>3381129</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="M34" s="7">
+        <v>8087</v>
+      </c>
+      <c r="N34" s="7">
+        <v>6650112</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3376</v>
       </c>
-      <c r="D31" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="7">
         <v>5358</v>
       </c>
-      <c r="I31" s="7">
-        <v>3803057</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3657858</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="7">
         <v>8734</v>
       </c>
-      <c r="N31" s="7">
-        <v>7188285</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="N35" s="7">
+        <v>7117675</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
